--- a/bus_stops_cleaned_revised.xlsx
+++ b/bus_stops_cleaned_revised.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwrdarren\Desktop\sch\Tri 2\CSC1108\bus\CSC1108_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua Lim\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1738EF5E-1DD7-4BCF-801E-9D4FA56B05A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F61E432-83FA-4A18-98C6-BA349A91E68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" activeTab="4" xr2:uid="{F10A9419-1CB3-714B-AE05-C7B58E3111EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{F10A9419-1CB3-714B-AE05-C7B58E3111EF}"/>
   </bookViews>
   <sheets>
     <sheet name="P101-loop" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'P411-01'!$A$1:$C$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'P411-02'!$A$1:$C$36</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="337">
   <si>
     <t>Bus stop</t>
   </si>
@@ -65,9 +65,6 @@
     <t>GPS Location</t>
   </si>
   <si>
-    <t>1.4964559999542668, 103.74374661113058</t>
-  </si>
-  <si>
     <t>Pejabat Daerah Tanah Johor Bahru</t>
   </si>
   <si>
@@ -257,9 +254,6 @@
     <t>aft Jalan Permas 8/14</t>
   </si>
   <si>
-    <t>1.5386151368910133, 103.62871889454172</t>
-  </si>
-  <si>
     <t>Taman Universiti Terminal</t>
   </si>
   <si>
@@ -305,27 +299,15 @@
     <t>Sin Kok Soon Motor (JB) Sdn Bhd</t>
   </si>
   <si>
-    <t>1.5350511809872578, 103.66474654589447</t>
-  </si>
-  <si>
     <t>aft Jalan Patin</t>
   </si>
   <si>
-    <t>1.5365257998200346, 103.66343750790784</t>
-  </si>
-  <si>
     <t>SJK(C) Pu Sze</t>
   </si>
   <si>
-    <t>1.5397247249617794, 103.66050127115842</t>
-  </si>
-  <si>
     <t>aft Shell Kiosk - Skudai</t>
   </si>
   <si>
-    <t>1.5449034370227417, 103.65727484903925</t>
-  </si>
-  <si>
     <t>Shell Kiosk @ Taman Sri Putri</t>
   </si>
   <si>
@@ -353,486 +335,240 @@
     <t>Jalan Kebudayaan 27 / 24 Intersection</t>
   </si>
   <si>
-    <t>1.5423777121603113, 103.62969894227055</t>
-  </si>
-  <si>
     <t>Aeon Taman Universiti</t>
   </si>
   <si>
-    <t>1.5598595502801802, 103.63478382209261</t>
-  </si>
-  <si>
     <t>UTM Fakulti Alam Bina</t>
   </si>
   <si>
-    <t>1.5627697345949043, 103.63645243799397</t>
-  </si>
-  <si>
     <t>Opp Block D10</t>
   </si>
   <si>
-    <t>1.5627095018015627, 103.63914999722523</t>
-  </si>
-  <si>
     <t>Opp C.I.C.T.</t>
   </si>
   <si>
-    <t>1.5604593962896607, 103.64164333508509</t>
-  </si>
-  <si>
     <t>Block P07 - Fakulti Kejuruteraan Elektrik</t>
   </si>
   <si>
-    <t>1.558167973564592, 103.64021955093295</t>
-  </si>
-  <si>
     <t>aft Block P19A - Fakulti Kejuruteraan Elektrik</t>
   </si>
   <si>
-    <t>1.5553378482590166, 103.6410112229101</t>
-  </si>
-  <si>
     <t>UTM Equine Park</t>
   </si>
   <si>
-    <t>1.5533050263979893, 103.6427117938282</t>
-  </si>
-  <si>
     <t>UTM Rumah Alumni</t>
   </si>
   <si>
-    <t>1.5446071130881212, 103.65778209077513</t>
-  </si>
-  <si>
     <t>Opp Shell Kiosk @ Taman Sri Putri</t>
   </si>
   <si>
-    <t>1.541540224027169, 103.65954500502208</t>
-  </si>
-  <si>
     <t>Skudai Parade</t>
   </si>
   <si>
-    <t>1.528201281584724, 103.67097274711804</t>
-  </si>
-  <si>
     <t>Opp SJK (C) Kuo Kuang</t>
   </si>
   <si>
-    <t>1.51926239182888, 103.68206611709597</t>
-  </si>
-  <si>
     <t>bef Paradigm Mall</t>
   </si>
   <si>
-    <t>1.514813892563429, 103.6852375606564</t>
-  </si>
-  <si>
     <t>Paradigm Mall</t>
   </si>
   <si>
-    <t>1.5121383386574008, 103.68706591589486</t>
-  </si>
-  <si>
     <t>Opp Saksama Otomobil</t>
   </si>
   <si>
-    <t>1.5088584686178155, 103.68928902381539</t>
-  </si>
-  <si>
     <t>Opp Petron Kiosk @ Taman Tampoi Indah</t>
   </si>
   <si>
-    <t>1.5008855908671468, 103.69599314953071</t>
-  </si>
-  <si>
     <t>Kompleks Pekan Rabu Johor Bahru</t>
   </si>
   <si>
-    <t>1.498877450327011, 103.69886295948693</t>
-  </si>
-  <si>
     <t>Giant Tampoi</t>
   </si>
   <si>
-    <t>1.4969289341746932, 103.70179963586516</t>
-  </si>
-  <si>
     <t>aft Lorong Betik</t>
   </si>
   <si>
-    <t>1.4957308782478185, 103.70353570332152</t>
-  </si>
-  <si>
     <t>Batu 5 Johor Street Market</t>
   </si>
   <si>
     <t>Plaza Angsana</t>
   </si>
   <si>
-    <t>1.494173589831715, 103.70574439346098</t>
-  </si>
-  <si>
-    <t>1.489587186962772, 103.71219076437811</t>
-  </si>
-  <si>
     <t>Klinik Utama @ Jalan Padi 1</t>
   </si>
   <si>
-    <t>1.4871255056128097, 103.72438547599789</t>
-  </si>
-  <si>
     <t>Opp Amitabha Centre</t>
   </si>
   <si>
-    <t>1.4887834830210198, 103.72764307910049</t>
-  </si>
-  <si>
     <t>Opp Shell Kiosk @ Jalan Tun Abdul Razak</t>
   </si>
   <si>
-    <t>1.4917281528123314, 103.7409162392451</t>
-  </si>
-  <si>
-    <t>1.4884998356693775, 103.72760379017922</t>
-  </si>
-  <si>
     <t>aft Shell Kiosk @ Jalan Tun Abdul Razak</t>
   </si>
   <si>
-    <t>1.4867890112545767, 103.72429767112283</t>
-  </si>
-  <si>
     <t>Amitabha Centre</t>
   </si>
   <si>
-    <t>1.4888638795941063, 103.71242062086549</t>
-  </si>
-  <si>
     <t>CIMB Bank</t>
   </si>
   <si>
-    <t>1.4925296181173713, 103.70708612019975</t>
-  </si>
-  <si>
     <t>Klinik Kesihatan Tampoi</t>
   </si>
   <si>
-    <t>1.4925322994125712, 103.70707002694427</t>
-  </si>
-  <si>
     <t>bef Shell Kiosk @ Kampung Pasir</t>
   </si>
   <si>
-    <t>1.4989947483511965, 103.6980312919993</t>
-  </si>
-  <si>
     <t>SK Kampung Pasir</t>
   </si>
   <si>
-    <t>1.500912032218495, 103.69531386622876</t>
-  </si>
-  <si>
     <t>Opp Pulai View Condo</t>
   </si>
   <si>
-    <t>1.5082150994789085, 103.68916128086431</t>
-  </si>
-  <si>
     <t>bef KIP Mart</t>
   </si>
   <si>
-    <t>1.516395250789313, 103.6837138895428</t>
-  </si>
-  <si>
     <t>Opp Paradigm Mall</t>
   </si>
   <si>
-    <t>1.5230889877416085, 103.67895937664424</t>
-  </si>
-  <si>
     <t>bef McDonald's</t>
   </si>
   <si>
-    <t>1.5280473244911534, 103.67046271528375</t>
-  </si>
-  <si>
     <t>SJK (C) Kuo Kuang</t>
   </si>
   <si>
-    <t>1.548816799334225, 103.65409455093105</t>
-  </si>
-  <si>
     <t>aft Jalan Sri Skudai</t>
   </si>
   <si>
-    <t>1.5497602750844084, 103.65177488955318</t>
-  </si>
-  <si>
-    <t>1.5568669736349259, 103.63801336191919</t>
-  </si>
-  <si>
     <t>bef UTM Main Gate</t>
   </si>
   <si>
-    <t>1.5567743097422382, 103.63729839383352</t>
-  </si>
-  <si>
     <t>UTM Main Gate (Exit)</t>
   </si>
   <si>
-    <t>1.5419187249489392, 103.62971573495227</t>
-  </si>
-  <si>
     <t>Opp AEON Taman Universiti</t>
   </si>
   <si>
-    <t>1.6626828053288385, 103.59889110796522</t>
-  </si>
-  <si>
     <t>Kulai Terminal</t>
   </si>
   <si>
-    <t>1.6613642865126417, 103.60372737912934</t>
-  </si>
-  <si>
     <t>Kulai Centre Point</t>
   </si>
   <si>
-    <t>1.6541744853842373, 103.60971038276091</t>
-  </si>
-  <si>
     <t>Opp SBS Enterprises (M) Sdn Bhd</t>
   </si>
   <si>
-    <t>1.6509304328430152, 103.61148553732649</t>
-  </si>
-  <si>
     <t>Opp Public Bank @ Jalan Susur Kulai 2</t>
   </si>
   <si>
-    <t>1.6452580216482706, 103.61649637358444</t>
-  </si>
-  <si>
     <t>Opp Pertubuhan Peladang Kawasan Kulai</t>
   </si>
   <si>
-    <t>1.6398209133282802, 103.62466463309562</t>
-  </si>
-  <si>
     <t>Opp Hospital Temenggong Seri Maharaja Tun Ibrahim Kulaijaya</t>
   </si>
   <si>
-    <t>1.6359493158863123, 103.62993165279192</t>
-  </si>
-  <si>
     <t>Opp Jalan Cermai</t>
   </si>
   <si>
-    <t>1.633014316152999, 103.63349819512037</t>
-  </si>
-  <si>
     <t>Opp Stor JKR (D) Kulaijaya</t>
   </si>
   <si>
-    <t>1.628655062754551, 103.63807709630609</t>
-  </si>
-  <si>
     <t>Opp Wang Loo Motor Sdn Bhd</t>
   </si>
   <si>
-    <t>1.6203723172849367, 103.64614936801505</t>
-  </si>
-  <si>
     <t>Opp Pejabat Lembaga Lebuhraya Malaysia</t>
   </si>
   <si>
-    <t>1.6013846087875712, 103.64515677546767</t>
-  </si>
-  <si>
     <t>Medan Selera Senai</t>
   </si>
   <si>
-    <t>1.596764420712483, 103.64559102580564</t>
-  </si>
-  <si>
     <t>Opp Sekolah Kebangsaan Senai</t>
   </si>
   <si>
-    <t>1.5910215647537664, 103.64796686012346</t>
-  </si>
-  <si>
     <t>Opp BHPetrol Kiosk @ Taman Aman</t>
   </si>
   <si>
-    <t>1.5710682887829601, 103.66094006994001</t>
-  </si>
-  <si>
     <t>aft Lebuhraya Utara-Selatan</t>
   </si>
   <si>
-    <t>1.554106991277451, 103.65853254841942</t>
-  </si>
-  <si>
     <t>aft Tenaga Nasional Bhd Substation</t>
   </si>
   <si>
-    <t>1.5906962752714202, 103.64770108827454</t>
-  </si>
-  <si>
     <t>bef BHPetrol Kiosk @ Taman Aman</t>
   </si>
   <si>
-    <t>1.595899319482502, 103.64536899139767</t>
-  </si>
-  <si>
     <t>bef Sekolah Kebangsaan Senai</t>
   </si>
   <si>
-    <t>1.6002634055808034, 103.64459319263067</t>
-  </si>
-  <si>
     <t>Opp Medan Selera Senai</t>
   </si>
   <si>
-    <t>1.6059365939653953, 103.64761480488822</t>
-  </si>
-  <si>
     <t>Masjid Jamek Pekan Senai</t>
   </si>
   <si>
-    <t>1.6131991987249765, 103.64710738509358</t>
-  </si>
-  <si>
     <t>Opp Deway Motor Trading</t>
   </si>
   <si>
-    <t>1.6207882154385622, 103.64552297418207</t>
-  </si>
-  <si>
     <t>Pejabat Lembaga Lebuhraya Malaysia</t>
   </si>
   <si>
-    <t>1.6295962449739738, 103.63695517790576</t>
-  </si>
-  <si>
     <t>aft Jalan Kelah</t>
   </si>
   <si>
-    <t>1.6326708725405026, 103.63339205387095</t>
-  </si>
-  <si>
     <t>Stor JKR (D) Kulaijaya</t>
   </si>
   <si>
-    <t>1.6335971426643172, 103.63241743186276</t>
-  </si>
-  <si>
     <t>TJ Mart</t>
   </si>
   <si>
-    <t>1.635335030874363, 103.63004451042003</t>
-  </si>
-  <si>
     <t>aft Jalan Cermai 7</t>
   </si>
   <si>
-    <t>1.6396010400006824, 103.62474653372412</t>
-  </si>
-  <si>
     <t>bef Hospital Temenggong Seri Maharaja Tun Ibrahim Kulaijaya</t>
   </si>
   <si>
-    <t>1.6455913464676681, 103.61572207605488</t>
-  </si>
-  <si>
     <t>SMK Kulai Besar</t>
   </si>
   <si>
-    <t>1.6476804172092263, 103.61361307604972</t>
-  </si>
-  <si>
     <t>aft Persiaran Indahpura 4</t>
   </si>
   <si>
-    <t>1.651406692568061, 103.61086172023629</t>
-  </si>
-  <si>
     <t>Persatuan Hokkien Kulai</t>
   </si>
   <si>
-    <t>1.6543330452855867, 103.60950205361249</t>
-  </si>
-  <si>
     <t>SBS Enterprises (M) Sdn Bhd</t>
   </si>
   <si>
-    <t>1.6608994486573931, 103.60422582209408</t>
-  </si>
-  <si>
     <t>Opp Arked Kulai</t>
   </si>
   <si>
-    <t>1.6102010601670786, 103.65715287633772</t>
-  </si>
-  <si>
     <t>bef Econsave @ Senai</t>
   </si>
   <si>
-    <t>1.6110068446478472, 103.65629332000914</t>
-  </si>
-  <si>
     <t>Econsave Senai</t>
   </si>
   <si>
-    <t>1.6125013180073793, 103.65816892145304</t>
-  </si>
-  <si>
     <t>Opp Pusat Hemodialisis Rotary Kulai</t>
   </si>
   <si>
-    <t>1.6145424343173105, 103.658532012215</t>
-  </si>
-  <si>
     <t>Opp Taman Bintang</t>
   </si>
   <si>
-    <t>1.6261343968296889, 103.65631508831991</t>
-  </si>
-  <si>
     <t>Kawasan Perindustrian Senai 3</t>
   </si>
   <si>
-    <t>1.6349379250179437, 103.66630691168017</t>
-  </si>
-  <si>
     <t>Senai Airport Terminal</t>
   </si>
   <si>
-    <t>1.6283976940465283, 103.65689819511196</t>
-  </si>
-  <si>
     <t>NSTP Senai</t>
   </si>
   <si>
-    <t>1.615570955439796, 103.65883089562581</t>
-  </si>
-  <si>
     <t>Taman Bintang</t>
   </si>
   <si>
-    <t>1.6093409706514916, 103.65682082209246</t>
-  </si>
-  <si>
     <t>Taman Mewah</t>
   </si>
   <si>
-    <t>1.4917131097073193, 103.740885249776</t>
-  </si>
-  <si>
-    <t>1.4951582030026658, 103.74265912074162</t>
-  </si>
-  <si>
     <t>1.4799681745036748, 103.7368097883264</t>
   </si>
   <si>
@@ -926,9 +662,6 @@
     <t>1.4951679973372256, 103.7892963638993</t>
   </si>
   <si>
-    <t>1.4948418917747008, 103.78769183335505</t>
-  </si>
-  <si>
     <t>1.492372107592337, 103.80610320254634</t>
   </si>
   <si>
@@ -1013,9 +746,6 @@
     <t>1.54630598041107, 103.78920459213897</t>
   </si>
   <si>
-    <t>1.5385122934669435, 103.62870816100825</t>
-  </si>
-  <si>
     <t>1.5357212044553494, 103.6281673481487</t>
   </si>
   <si>
@@ -1061,27 +791,12 @@
     <t>1.529600899982363, 103.6650616354678</t>
   </si>
   <si>
-    <t>1.5349999201057576, 103.66475415907358</t>
-  </si>
-  <si>
-    <t>1.5364846580085936, 103.6634170453263</t>
-  </si>
-  <si>
-    <t>1.5396890112958774, 103.66050917857834</t>
-  </si>
-  <si>
-    <t>1.5448854322307746, 103.65727608565074</t>
-  </si>
-  <si>
     <t>1.5449228559717811, 103.6525796354517</t>
   </si>
   <si>
     <t>1.5430743186937654, 103.650756682079</t>
   </si>
   <si>
-    <t>1.5495957150272732, 103.65180184565875</t>
-  </si>
-  <si>
     <t>1.544562318351531, 103.6439817684996</t>
   </si>
   <si>
@@ -1092,13 +807,281 @@
   </si>
   <si>
     <t>1.52967091652057, 103.62934238679348</t>
+  </si>
+  <si>
+    <t>1.6124917894992,103.658257331599</t>
+  </si>
+  <si>
+    <t>1.61446150916792,103.658604544553</t>
+  </si>
+  <si>
+    <t>1.6261976681358,103.656401466254</t>
+  </si>
+  <si>
+    <t>1.63608892543635,103.665726495243</t>
+  </si>
+  <si>
+    <t>1.62827834647092,103.656807809442</t>
+  </si>
+  <si>
+    <t>1.61548158182242,103.65875294735</t>
+  </si>
+  <si>
+    <t>1.60917629668626,103.65675932218</t>
+  </si>
+  <si>
+    <t>1.59664876568782,103.645435457139</t>
+  </si>
+  <si>
+    <t>1.57103581697228,103.660642559122</t>
+  </si>
+  <si>
+    <t>1.54460061936496,103.657677600894</t>
+  </si>
+  <si>
+    <t>1.54083493759975,103.659688041005</t>
+  </si>
+  <si>
+    <t>1.53654406021234,103.663522844264</t>
+  </si>
+  <si>
+    <t>1.53972472496177,103.660508084584</t>
+  </si>
+  <si>
+    <t>1.54488221712229,103.657355894315</t>
+  </si>
+  <si>
+    <t>1.59573707673294,103.64543896008</t>
+  </si>
+  <si>
+    <t>1.61014207451639,103.657185224279</t>
+  </si>
+  <si>
+    <t>1.61091523435826,103.65627568238</t>
+  </si>
+  <si>
+    <t>1.49523932121696,103.743347921416</t>
+  </si>
+  <si>
+    <t>1.48894964854461,103.71236815641</t>
+  </si>
+  <si>
+    <t>1.49252919505096,103.707174065274</t>
+  </si>
+  <si>
+    <t>1.50099109692804,103.695429232533</t>
+  </si>
+  <si>
+    <t>1.51630744783623,103.683845520206</t>
+  </si>
+  <si>
+    <t>1.52812086058328,103.670477094336</t>
+  </si>
+  <si>
+    <t>1.55410699127745,103.658532548419</t>
+  </si>
+  <si>
+    <t>1.59060010549073,103.647793531303</t>
+  </si>
+  <si>
+    <t>1.60062867637259,103.644716910587</t>
+  </si>
+  <si>
+    <t>1.6006417697574,103.644717024414</t>
+  </si>
+  <si>
+    <t>1.61316062756388,103.647201063085</t>
+  </si>
+  <si>
+    <t>1.62058352931254,103.645693351153</t>
+  </si>
+  <si>
+    <t>1.62950885546867,103.636968977846</t>
+  </si>
+  <si>
+    <t>1.63264661133644,103.633469211183</t>
+  </si>
+  <si>
+    <t>1.63345134050849,103.632576328952</t>
+  </si>
+  <si>
+    <t>1.63540671868164,103.630121611178</t>
+  </si>
+  <si>
+    <t>1.63942932760017,103.624820385759</t>
+  </si>
+  <si>
+    <t>1.64553739331655,103.61582805723</t>
+  </si>
+  <si>
+    <t>1.64755016067852,103.613710524765</t>
+  </si>
+  <si>
+    <t>1.65130749828605,103.610905283557</t>
+  </si>
+  <si>
+    <t>1.65428742025311,103.609543001355</t>
+  </si>
+  <si>
+    <t>1.66088490380384,103.604204100278</t>
+  </si>
+  <si>
+    <t>1.5422112787234,103.629761444565</t>
+  </si>
+  <si>
+    <t>1.55532805572029,103.640934717534</t>
+  </si>
+  <si>
+    <t>1.55322817653687,103.642738888514</t>
+  </si>
+  <si>
+    <t>1.49573087824781,103.703535703321</t>
+  </si>
+  <si>
+    <t>1.49165846506251,103.740830346917</t>
+  </si>
+  <si>
+    <t>1.48860504009412,103.727589716071</t>
+  </si>
+  <si>
+    <t>1.48684546380067,103.724298066704</t>
+  </si>
+  <si>
+    <t>1.49671681798785,103.701409319271</t>
+  </si>
+  <si>
+    <t>1.50098104209443,103.69542520934</t>
+  </si>
+  <si>
+    <t>1.50828883409565,103.689316865789</t>
+  </si>
+  <si>
+    <t>1.5231828430405,103.679049922212</t>
+  </si>
+  <si>
+    <t>1.53508392532548,103.664780025273</t>
+  </si>
+  <si>
+    <t>1.54874885512632,103.654036371997</t>
+  </si>
+  <si>
+    <t>1.54978107839112,103.651906325907</t>
+  </si>
+  <si>
+    <t>1.55988843206299,103.634687807271</t>
+  </si>
+  <si>
+    <t>1.56268856338643,103.636533296863</t>
+  </si>
+  <si>
+    <t>1.56264809995315,103.639116280051</t>
+  </si>
+  <si>
+    <t>1.56029584478936,103.641508516663</t>
+  </si>
+  <si>
+    <t>1.55806194252923,103.64019015149</t>
+  </si>
+  <si>
+    <t>1.55698497249207,103.637872311297</t>
+  </si>
+  <si>
+    <t>1.55674582906977,103.637228389266</t>
+  </si>
+  <si>
+    <t>1.54194332765151,103.629639887783</t>
+  </si>
+  <si>
+    <t>1.53838305721429,103.628388759773</t>
+  </si>
+  <si>
+    <t>1.66268280532883,103.598891107965</t>
+  </si>
+  <si>
+    <t>1.66123885591671,103.603693963807</t>
+  </si>
+  <si>
+    <t>1.65417165904918,103.609666641496</t>
+  </si>
+  <si>
+    <t>1.65085281494021,103.611463266141</t>
+  </si>
+  <si>
+    <t>1.64525802164827,103.616496373584</t>
+  </si>
+  <si>
+    <t>1.63982091332828,103.624664633095</t>
+  </si>
+  <si>
+    <t>1.63575607407477,103.629909574375</t>
+  </si>
+  <si>
+    <t>1.63283676823421,103.633415829832</t>
+  </si>
+  <si>
+    <t>1.62867510885374,103.638025211155</t>
+  </si>
+  <si>
+    <t>1.62029102752773,103.646064847553</t>
+  </si>
+  <si>
+    <t>1.60122922674029,103.644979283949</t>
+  </si>
+  <si>
+    <t>1.59104782807255,103.647809967634</t>
+  </si>
+  <si>
+    <t>1.52814246754786,103.670895575501</t>
+  </si>
+  <si>
+    <t>1.51462868843576,103.685361302614</t>
+  </si>
+  <si>
+    <t>1.51481389256342,103.685237560656</t>
+  </si>
+  <si>
+    <t>1.5121383386574,103.687065915894</t>
+  </si>
+  <si>
+    <t>1.50885846861781,103.689289023815</t>
+  </si>
+  <si>
+    <t>1.50072810787223,103.695981886925</t>
+  </si>
+  <si>
+    <t>1.49879461051959,103.698774385984</t>
+  </si>
+  <si>
+    <t>1.49692893417469,103.701799635865</t>
+  </si>
+  <si>
+    <t>1.49417358983171,103.70574439346</t>
+  </si>
+  <si>
+    <t>1.48951852473886,103.712117963909</t>
+  </si>
+  <si>
+    <t>1.4871255056128,103.724385475997</t>
+  </si>
+  <si>
+    <t>1.48873580904179,103.727698549635</t>
+  </si>
+  <si>
+    <t>1.4990963433905544, 103.69806832084701</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1124,14 +1107,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{48B581E3-E7EC-4F74-BB19-C1513BCBEFE3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1457,7 +1442,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1471,10 +1456,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1482,10 +1467,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1493,10 +1478,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>258</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1504,10 +1489,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>259</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1515,10 +1500,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>260</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1526,10 +1511,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>261</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1537,10 +1522,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>262</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1548,10 +1533,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1559,10 +1544,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>264</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1570,10 +1555,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>265</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1581,10 +1566,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>266</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1592,10 +1577,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>267</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1603,10 +1588,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>268</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1614,10 +1599,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>269</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1625,10 +1610,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>271</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1636,10 +1621,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>270</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1647,10 +1632,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>272</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1658,10 +1643,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>273</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1669,10 +1654,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -1685,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8D436B-8365-F94A-8225-647168D0FF6E}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1697,7 +1682,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1711,10 +1696,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1722,10 +1707,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1733,10 +1718,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1744,10 +1729,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>165</v>
       </c>
       <c r="C5" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1755,10 +1740,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1766,10 +1751,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1777,10 +1762,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>253</v>
+        <v>168</v>
       </c>
       <c r="C8" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1788,10 +1773,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>255</v>
+        <v>169</v>
       </c>
       <c r="C9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1799,10 +1784,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
-        <v>196</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1810,10 +1795,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1821,10 +1806,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s">
-        <v>200</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1832,10 +1817,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
-        <v>202</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1843,10 +1828,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1854,10 +1839,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1865,10 +1850,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1876,10 +1861,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1887,10 +1872,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1898,10 +1883,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1909,10 +1894,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C20" t="s">
-        <v>204</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1920,10 +1905,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s">
-        <v>206</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1931,10 +1916,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="C22" t="s">
-        <v>208</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1942,10 +1927,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>211</v>
+        <v>147</v>
       </c>
       <c r="C23" t="s">
-        <v>210</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1953,10 +1938,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>239</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1964,10 +1949,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>241</v>
+        <v>162</v>
       </c>
       <c r="C25" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -1981,7 +1966,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1992,7 +1977,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2006,10 +1991,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>274</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2017,10 +2002,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>276</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2028,10 +2013,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>275</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2039,10 +2024,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>277</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2050,10 +2035,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>278</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2061,10 +2046,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>279</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2072,10 +2057,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>280</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2083,10 +2068,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>281</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2094,10 +2079,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>266</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2111,7 +2096,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2122,7 +2107,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2136,10 +2121,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>266</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2147,10 +2132,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>267</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2158,10 +2143,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>268</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2169,10 +2154,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>282</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2180,10 +2165,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>283</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2191,10 +2176,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2202,10 +2187,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2213,10 +2198,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2224,10 +2209,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2235,10 +2220,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2246,10 +2231,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>288</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2257,10 +2242,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>289</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2274,7 +2259,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2285,7 +2270,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2299,10 +2284,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>289</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2310,10 +2295,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2321,10 +2306,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2332,10 +2317,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>291</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2343,10 +2328,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>293</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2354,10 +2339,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>294</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2365,10 +2350,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>296</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2376,10 +2361,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>301</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2387,10 +2372,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>303</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2398,10 +2383,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>305</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2409,10 +2394,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>307</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2420,10 +2405,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>306</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2431,10 +2416,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>308</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2442,10 +2427,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>309</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2453,10 +2438,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>310</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2464,10 +2449,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>312</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2475,10 +2460,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>313</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2486,10 +2471,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>314</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2497,10 +2482,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>315</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2508,10 +2493,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>316</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2519,10 +2504,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>317</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2530,10 +2515,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>311</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2541,10 +2526,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>304</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2552,10 +2537,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>302</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2563,10 +2548,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>300</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2574,10 +2559,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>299</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2585,10 +2570,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>298</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2596,10 +2581,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>297</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2607,10 +2592,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>295</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2618,10 +2603,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>292</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2629,10 +2614,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>290</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2640,10 +2625,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2651,10 +2636,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>288</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2662,15 +2647,17 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>289</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C35" xr:uid="{5C03AD16-751C-B141-A50B-C664EED5BE46}"/>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2678,8 +2665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF97AEBD-A3C9-2141-BD79-7A7ED4EED60B}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2690,7 +2677,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2704,10 +2691,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2715,10 +2702,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>320</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2726,10 +2713,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>321</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2737,10 +2724,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>322</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2748,10 +2735,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>323</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2759,10 +2746,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>324</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2770,10 +2757,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>325</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2781,10 +2768,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>326</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2792,10 +2779,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>327</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2803,10 +2790,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>328</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2814,10 +2801,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>329</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2825,10 +2812,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>330</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2836,10 +2823,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>331</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2847,10 +2834,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>332</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2858,10 +2845,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>333</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2869,10 +2856,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2880,10 +2867,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2891,10 +2878,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>336</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2902,10 +2889,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>337</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2913,10 +2900,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>339</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2924,10 +2911,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>338</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2935,10 +2922,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2946,10 +2933,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>341</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2957,10 +2944,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>342</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2968,10 +2955,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>344</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2979,10 +2966,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>343</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2990,10 +2977,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>319</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3001,10 +2988,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -3018,7 +3005,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3029,7 +3016,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3043,10 +3030,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3054,10 +3041,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3065,10 +3052,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3076,10 +3063,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3087,10 +3074,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3098,10 +3085,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3109,10 +3096,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3120,10 +3107,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3131,10 +3118,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3142,10 +3129,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3153,10 +3140,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3164,10 +3151,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3175,10 +3162,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3186,10 +3173,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3197,10 +3184,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3208,10 +3195,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3219,10 +3206,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3230,10 +3217,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3241,10 +3228,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3252,10 +3239,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3263,10 +3250,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3274,10 +3261,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3285,10 +3272,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3296,10 +3283,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>142</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -3307,10 +3294,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3324,7 +3311,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3335,7 +3322,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3349,10 +3336,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3360,10 +3347,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3371,10 +3358,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3382,10 +3369,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3393,10 +3380,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3404,10 +3391,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3415,10 +3402,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3426,10 +3413,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3437,10 +3424,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3448,10 +3435,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3459,10 +3446,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3470,10 +3457,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3481,10 +3468,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3492,10 +3479,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3503,10 +3490,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3514,10 +3501,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3525,10 +3512,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3536,10 +3523,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="C19" t="s">
-        <v>167</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3547,10 +3534,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>169</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3558,10 +3545,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3569,10 +3556,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3580,10 +3567,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3591,10 +3578,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3602,10 +3589,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -3613,10 +3600,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>170</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -3624,10 +3611,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="C27" t="s">
-        <v>172</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3635,10 +3622,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
-        <v>174</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3646,15 +3633,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C29" xr:uid="{79FA3847-F518-0540-B4B4-CE6F72C2D5AD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3663,7 +3651,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3674,7 +3662,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3688,10 +3676,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3699,10 +3687,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3710,10 +3698,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3721,10 +3709,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3732,10 +3720,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3743,10 +3731,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
-        <v>186</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3754,10 +3742,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>188</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3765,10 +3753,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>190</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3776,10 +3764,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3787,10 +3775,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3798,10 +3786,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s">
-        <v>196</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3809,10 +3797,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
-        <v>198</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3820,10 +3808,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="C14" t="s">
-        <v>200</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3831,10 +3819,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>143</v>
       </c>
       <c r="C15" t="s">
-        <v>202</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3842,10 +3830,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3853,10 +3841,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3864,10 +3852,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3875,10 +3863,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3886,10 +3874,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3897,10 +3885,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>124</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3908,10 +3896,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3919,10 +3907,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3930,10 +3918,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3941,10 +3929,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>132</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -3952,10 +3940,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s">
-        <v>134</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -3963,10 +3951,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3974,10 +3962,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3985,10 +3973,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3996,10 +3984,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -4007,10 +3995,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -4023,8 +4011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A68FDA-B711-404A-BB23-6CDB140930DB}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4035,7 +4023,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4049,10 +4037,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4060,10 +4048,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4071,10 +4059,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4082,10 +4070,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4093,10 +4081,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4104,10 +4092,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4115,10 +4103,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4126,10 +4114,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4137,10 +4125,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4148,10 +4136,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -4159,10 +4147,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -4170,10 +4158,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4181,10 +4169,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -4192,10 +4180,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4203,10 +4191,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -4214,10 +4202,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -4225,10 +4213,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -4236,10 +4224,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
-        <v>204</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -4247,10 +4235,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>145</v>
       </c>
       <c r="C20" t="s">
-        <v>206</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4258,10 +4246,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s">
-        <v>208</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -4269,10 +4257,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>211</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s">
-        <v>210</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -4280,10 +4268,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>213</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s">
-        <v>212</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4291,10 +4279,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4302,10 +4290,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="C25" t="s">
-        <v>216</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -4313,10 +4301,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>219</v>
+        <v>151</v>
       </c>
       <c r="C26" t="s">
-        <v>218</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -4324,10 +4312,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>221</v>
+        <v>152</v>
       </c>
       <c r="C27" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -4335,10 +4323,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>223</v>
+        <v>153</v>
       </c>
       <c r="C28" t="s">
-        <v>222</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -4346,10 +4334,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="C29" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -4357,10 +4345,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="C30" t="s">
-        <v>226</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -4368,10 +4356,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="C31" t="s">
-        <v>228</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4379,10 +4367,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="C32" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -4390,10 +4378,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>233</v>
+        <v>158</v>
       </c>
       <c r="C33" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -4401,10 +4389,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>235</v>
+        <v>159</v>
       </c>
       <c r="C34" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -4412,10 +4400,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>237</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -4423,10 +4411,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s">
-        <v>176</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
